--- a/7rmartSupermarket/src/main/resources/exceltest.xlsx
+++ b/7rmartSupermarket/src/main/resources/exceltest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\eclipse-workspace\7rmartSupermarket\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\git\7rmartSupermarket\7rmartSupermarket\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C40F6AF-1554-495E-AFAB-85311104912B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C16AA0-B38F-4BCB-906E-75BD22657BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{0453D450-452C-4450-A00A-FC3E4377D04E}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" activeTab="4" xr2:uid="{0453D450-452C-4450-A00A-FC3E4377D04E}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -82,14 +82,14 @@
     <t>Alappuzha</t>
   </si>
   <si>
-    <t>20 min</t>
+    <t>"20 min"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +102,14 @@
       <color rgb="FF212529"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,15 +144,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -630,12 +641,12 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -644,7 +655,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -664,6 +675,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F1408912-AFCE-4C22-B09E-471213165D8A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/7rmartSupermarket/src/main/resources/exceltest.xlsx
+++ b/7rmartSupermarket/src/main/resources/exceltest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\git\7rmartSupermarket\7rmartSupermarket\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C16AA0-B38F-4BCB-906E-75BD22657BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA8FE39-DC54-426D-B577-8C5540B59742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" activeTab="4" xr2:uid="{0453D450-452C-4450-A00A-FC3E4377D04E}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{0453D450-452C-4450-A00A-FC3E4377D04E}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>UserNmae</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>"20 min"</t>
+  </si>
+  <si>
+    <t>admin1</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8DDFD8-2DAC-46E0-AA8C-2C389008FEB1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -571,10 +574,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -640,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAEEC00-0FD9-4CE1-8FC4-4C27F381C86C}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
